--- a/regionseng/8/hotels and restaurants/hotels and restaurants.xlsx
+++ b/regionseng/8/hotels and restaurants/hotels and restaurants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>_</t>
   </si>
@@ -511,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:P14"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -523,7 +523,7 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -542,7 +542,7 @@
       <c r="N1" s="8"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -559,7 +559,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="9"/>
       <c r="B3" s="18">
         <v>2006</v>
@@ -606,8 +606,14 @@
       <c r="P3" s="19">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="19">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="19">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
@@ -656,8 +662,14 @@
       <c r="P4" s="3">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="3">
+        <v>17.7</v>
+      </c>
+      <c r="R4" s="3">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
@@ -706,8 +718,14 @@
       <c r="P5" s="4">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="4">
+        <v>17.7</v>
+      </c>
+      <c r="R5" s="4">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -756,8 +774,14 @@
       <c r="P6" s="5">
         <v>801</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="5">
+        <v>804</v>
+      </c>
+      <c r="R6" s="5">
+        <v>847.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
@@ -806,8 +830,14 @@
       <c r="P7" s="5">
         <v>785</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="5">
+        <v>635</v>
+      </c>
+      <c r="R7" s="5">
+        <v>839.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="13" t="s">
         <v>9</v>
       </c>
@@ -856,8 +886,14 @@
       <c r="P8" s="4">
         <v>232.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="4">
+        <v>319.5</v>
+      </c>
+      <c r="R8" s="4">
+        <v>485.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
@@ -906,8 +942,14 @@
       <c r="P9" s="4">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="4">
+        <v>11.2</v>
+      </c>
+      <c r="R9" s="4">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
@@ -956,8 +998,14 @@
       <c r="P10" s="4">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="R10" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="13" t="s">
         <v>12</v>
       </c>
@@ -1006,8 +1054,14 @@
       <c r="P11" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="R11" s="4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
@@ -1056,8 +1110,14 @@
       <c r="P12" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
@@ -1106,8 +1166,14 @@
       <c r="P13" s="4">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="R13" s="4">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
@@ -1156,8 +1222,14 @@
       <c r="P14" s="6">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="10"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1174,7 +1246,7 @@
       <c r="N15" s="8"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" ht="12.75">
+    <row r="16" spans="1:18" s="1" customFormat="1" ht="12.75">
       <c r="A16" s="11" t="s">
         <v>2</v>
       </c>

--- a/regionseng/8/hotels and restaurants/hotels and restaurants.xlsx
+++ b/regionseng/8/hotels and restaurants/hotels and restaurants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>_</t>
   </si>
@@ -511,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -523,7 +523,7 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -542,7 +542,7 @@
       <c r="N1" s="8"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -559,7 +559,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="9"/>
       <c r="B3" s="18">
         <v>2006</v>
@@ -612,8 +612,11 @@
       <c r="R3" s="19">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="19">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
@@ -668,8 +671,11 @@
       <c r="R4" s="3">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="3">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
@@ -724,8 +730,11 @@
       <c r="R5" s="4">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="4">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -780,8 +789,11 @@
       <c r="R6" s="5">
         <v>847.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="5">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
@@ -836,8 +848,11 @@
       <c r="R7" s="5">
         <v>839.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="5">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="13" t="s">
         <v>9</v>
       </c>
@@ -892,8 +907,11 @@
       <c r="R8" s="4">
         <v>485.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="4">
+        <v>649.16999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
@@ -948,8 +966,11 @@
       <c r="R9" s="4">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="4">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1025,11 @@
       <c r="R10" s="4">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="4">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="13" t="s">
         <v>12</v>
       </c>
@@ -1060,8 +1084,11 @@
       <c r="R11" s="4">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
@@ -1116,8 +1143,11 @@
       <c r="R12" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
@@ -1172,8 +1202,11 @@
       <c r="R13" s="4">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="4">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
@@ -1228,8 +1261,11 @@
       <c r="R14" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="10"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1246,7 +1282,7 @@
       <c r="N15" s="8"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:18" s="1" customFormat="1" ht="12.75">
+    <row r="16" spans="1:19" s="1" customFormat="1" ht="12.75">
       <c r="A16" s="11" t="s">
         <v>2</v>
       </c>
